--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Sstr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Sstr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cort</t>
   </si>
   <si>
     <t>Sstr3</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,10 +540,10 @@
         <v>1.444561</v>
       </c>
       <c r="I2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,10 +558,10 @@
         <v>0.754942</v>
       </c>
       <c r="O2">
-        <v>0.7066158363370714</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.7066158363370713</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0.1211733078291111</v>
@@ -570,320 +570,134 @@
         <v>1.090559770462</v>
       </c>
       <c r="S2">
-        <v>0.673359482154511</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="T2">
-        <v>0.6733594821545109</v>
+        <v>0.7789994499509271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.054895</v>
+      </c>
+      <c r="H3">
+        <v>0.164685</v>
+      </c>
+      <c r="I3">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="J3">
+        <v>0.08880865841952565</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.4815203333333334</v>
-      </c>
-      <c r="H3">
-        <v>1.444561</v>
-      </c>
-      <c r="I3">
-        <v>0.9529357361208413</v>
-      </c>
-      <c r="J3">
-        <v>0.9529357361208413</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.04007466666666667</v>
+        <v>0.2516473333333333</v>
       </c>
       <c r="N3">
-        <v>0.120224</v>
+        <v>0.754942</v>
       </c>
       <c r="O3">
-        <v>0.1125280913073959</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.1125280913073959</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01929676685155556</v>
+        <v>0.01381418036333333</v>
       </c>
       <c r="R3">
-        <v>0.173670901664</v>
+        <v>0.12432762327</v>
       </c>
       <c r="S3">
-        <v>0.1072320395242865</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="T3">
-        <v>0.1072320395242865</v>
+        <v>0.08880865841952565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.245134</v>
+      </c>
+      <c r="I4">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J4">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.4815203333333334</v>
-      </c>
-      <c r="H4">
-        <v>1.444561</v>
-      </c>
-      <c r="I4">
-        <v>0.9529357361208413</v>
-      </c>
-      <c r="J4">
-        <v>0.9529357361208413</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.06440833333333333</v>
+        <v>0.2516473333333333</v>
       </c>
       <c r="N4">
-        <v>0.193225</v>
+        <v>0.754942</v>
       </c>
       <c r="O4">
-        <v>0.1808560723555327</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1808560723555327</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.03101392213611111</v>
+        <v>0.02056243913644444</v>
       </c>
       <c r="R4">
-        <v>0.2791252992250001</v>
+        <v>0.185061952228</v>
       </c>
       <c r="S4">
-        <v>0.1723442144420437</v>
+        <v>0.1321918916295473</v>
       </c>
       <c r="T4">
-        <v>0.1723442144420437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.02378166666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.07134500000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.04706426387915874</v>
-      </c>
-      <c r="J5">
-        <v>0.04706426387915873</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.2516473333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.754942</v>
-      </c>
-      <c r="O5">
-        <v>0.7066158363370714</v>
-      </c>
-      <c r="P5">
-        <v>0.7066158363370713</v>
-      </c>
-      <c r="Q5">
-        <v>0.00598459299888889</v>
-      </c>
-      <c r="R5">
-        <v>0.05386133699</v>
-      </c>
-      <c r="S5">
-        <v>0.03325635418256037</v>
-      </c>
-      <c r="T5">
-        <v>0.03325635418256036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.02378166666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.07134500000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.04706426387915874</v>
-      </c>
-      <c r="J6">
-        <v>0.04706426387915873</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.04007466666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.120224</v>
-      </c>
-      <c r="O6">
-        <v>0.1125280913073959</v>
-      </c>
-      <c r="P6">
-        <v>0.1125280913073959</v>
-      </c>
-      <c r="Q6">
-        <v>0.0009530423644444446</v>
-      </c>
-      <c r="R6">
-        <v>0.008577381280000001</v>
-      </c>
-      <c r="S6">
-        <v>0.005296051783109349</v>
-      </c>
-      <c r="T6">
-        <v>0.005296051783109348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02378166666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.07134500000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.04706426387915874</v>
-      </c>
-      <c r="J7">
-        <v>0.04706426387915873</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.06440833333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.193225</v>
-      </c>
-      <c r="O7">
-        <v>0.1808560723555327</v>
-      </c>
-      <c r="P7">
-        <v>0.1808560723555327</v>
-      </c>
-      <c r="Q7">
-        <v>0.001531737513888889</v>
-      </c>
-      <c r="R7">
-        <v>0.013785637625</v>
-      </c>
-      <c r="S7">
-        <v>0.00851185791348902</v>
-      </c>
-      <c r="T7">
-        <v>0.008511857913489018</v>
+        <v>0.1321918916295473</v>
       </c>
     </row>
   </sheetData>
